--- a/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplateEspecializado2020v0.7.xlsx
+++ b/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplateEspecializado2020v0.7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="381">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -929,13 +929,10 @@
     <t xml:space="preserve">Platform</t>
   </si>
   <si>
-    <t xml:space="preserve">Nutricion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plataforma KO Rack,Plataforma KO Anaquel</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidratacion</t>
+    <t xml:space="preserve">Hidratación - Especializado</t>
   </si>
   <si>
     <t xml:space="preserve">Plataforma KO Rack</t>
@@ -1218,6 +1215,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1263,13 +1267,6 @@
       <sz val="11"/>
       <name val="VAG Rounded Std Light"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1542,7 +1539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1566,133 +1563,137 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1700,27 +1701,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1728,15 +1729,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1748,15 +1749,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1792,15 +1793,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1820,7 +1821,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1836,7 +1837,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1844,7 +1845,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1880,43 +1881,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="9" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1936,11 +1941,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1964,11 +1969,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1989,14 +1994,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2069,23 +2075,22 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="D2 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.3198380566802"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,7 +3910,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="D2 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3973,8 +3978,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4002,7 +4007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>16</v>
       </c>
@@ -4012,17 +4017,17 @@
       <c r="C2" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="80" t="s">
-        <v>296</v>
+      <c r="D2" s="81" t="s">
+        <v>108</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="n">
         <v>4</v>
       </c>
@@ -4032,17 +4037,17 @@
       <c r="C3" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>298</v>
+      <c r="D3" s="81" t="s">
+        <v>297</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>129</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="58.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="n">
         <v>2</v>
       </c>
@@ -4052,14 +4057,14 @@
       <c r="C4" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>298</v>
+      <c r="D4" s="81" t="s">
+        <v>297</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>129</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +4086,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4108,17 +4113,17 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -4129,7 +4134,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="55" t="n">
         <v>8</v>
@@ -4140,20 +4145,20 @@
       <c r="E2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>305</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4161,7 +4166,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C3" s="55" t="n">
         <v>10</v>
@@ -4172,21 +4177,21 @@
       <c r="E3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="85" t="s">
+      <c r="I3" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="I3" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>310</v>
-      </c>
       <c r="K3" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4208,7 +4213,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4236,25 +4241,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="I1" s="87" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="J1" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="K1" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="L1" s="87" t="s">
         <v>315</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="M1" s="87" t="s">
         <v>316</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="220.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,7 +4273,7 @@
         <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>154</v>
@@ -4283,7 +4288,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
@@ -4307,7 +4312,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4329,28 +4334,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -4380,12 +4385,12 @@
         <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -4414,12 +4419,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -4447,12 +4452,12 @@
         <v>14</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4480,15 +4485,15 @@
         <v>14</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>1</v>
@@ -4519,14 +4524,14 @@
         <v>14</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>195</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -4552,12 +4557,12 @@
         <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -4585,12 +4590,12 @@
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -4625,7 +4630,7 @@
         <v>195</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -4653,12 +4658,12 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4684,12 +4689,12 @@
         <v>14</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H11" s="77"/>
       <c r="I11" s="77"/>
       <c r="J11" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
@@ -4715,12 +4720,12 @@
         <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -4746,12 +4751,12 @@
         <v>14</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H13" s="77"/>
       <c r="I13" s="77"/>
       <c r="J13" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -4760,33 +4765,33 @@
       <c r="O13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="165.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="87" t="n">
+      <c r="A14" s="88" t="n">
         <v>79</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="n">
+      <c r="B14" s="89"/>
+      <c r="C14" s="90" t="n">
         <v>105</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91" t="s">
+      <c r="E14" s="92"/>
+      <c r="F14" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="92" t="s">
-        <v>341</v>
-      </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
+      <c r="G14" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4807,7 +4812,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4866,48 +4871,48 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="179.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="93" t="n">
+      <c r="A2" s="94" t="n">
         <v>35</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="96" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="96" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="G2" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="M2" s="97" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="98" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4930,7 +4935,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4949,7 +4954,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -4958,25 +4963,25 @@
         <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -5002,22 +5007,22 @@
         <v>105</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" s="99" t="s">
         <v>352</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="H2" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="I2" s="100" t="s">
         <v>354</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="J2" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>184</v>
@@ -5051,7 +5056,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5100,19 +5105,19 @@
         <v>17</v>
       </c>
       <c r="E2" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="77" t="s">
         <v>358</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>359</v>
       </c>
       <c r="G2" s="77" t="s">
         <v>185</v>
       </c>
       <c r="H2" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2" s="77" t="s">
         <v>360</v>
-      </c>
-      <c r="I2" s="77" t="s">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5134,7 +5139,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5143,21 +5148,21 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="101" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="102"/>
+      <c r="C1" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="101"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="n">
@@ -5167,7 +5172,7 @@
         <v>161</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -5250,7 +5255,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="103"/>
+      <c r="H9" s="104"/>
       <c r="I9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,7 +5299,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="103"/>
+      <c r="H13" s="104"/>
       <c r="I13" s="31"/>
     </row>
   </sheetData>
@@ -5316,7 +5321,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5325,32 +5330,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="E1" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="F1" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="103" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="100" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" s="102" t="s">
+      <c r="H1" s="101" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="I1" s="103" t="s">
         <v>368</v>
-      </c>
-      <c r="I1" s="102" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,19 +5369,19 @@
         <v>159</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G2" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I2" s="31" t="n">
         <v>1</v>
@@ -5393,19 +5398,19 @@
         <v>159</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E3" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G3" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I3" s="31" t="n">
         <v>1</v>
@@ -5422,19 +5427,19 @@
         <v>159</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E4" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I4" s="31" t="n">
         <v>1</v>
@@ -5451,19 +5456,19 @@
         <v>159</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E5" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G5" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I5" s="31" t="n">
         <v>1</v>
@@ -5480,19 +5485,19 @@
         <v>159</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E6" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G6" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I6" s="31" t="n">
         <v>1</v>
@@ -5509,19 +5514,19 @@
         <v>159</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E7" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G7" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I7" s="31" t="n">
         <v>1</v>
@@ -5538,19 +5543,19 @@
         <v>159</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E8" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G8" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I8" s="31" t="n">
         <v>1</v>
@@ -5567,19 +5572,19 @@
         <v>159</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G9" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="103" t="s">
-        <v>381</v>
+      <c r="H9" s="104" t="s">
+        <v>380</v>
       </c>
       <c r="I9" s="31" t="n">
         <v>1</v>
@@ -5596,19 +5601,19 @@
         <v>159</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E10" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G10" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I10" s="31" t="n">
         <v>1</v>
@@ -5625,19 +5630,19 @@
         <v>159</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E11" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G11" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I11" s="31" t="n">
         <v>1</v>
@@ -5654,19 +5659,19 @@
         <v>159</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E12" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G12" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I12" s="31" t="n">
         <v>1</v>
@@ -5683,19 +5688,19 @@
         <v>159</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E13" s="31" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G13" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="103" t="s">
-        <v>381</v>
+      <c r="H13" s="104" t="s">
+        <v>380</v>
       </c>
       <c r="I13" s="31" t="n">
         <v>1</v>
@@ -5720,7 +5725,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5905,8 +5910,8 @@
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6261,7 +6266,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6388,7 +6393,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6637,7 +6642,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="D2 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7166,19 +7171,19 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="1" sqref="D2 I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.2348178137652"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="63.412955465587"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -7634,7 +7639,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="1" sqref="D2 I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7831,7 +7836,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="D2 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
